--- a/RapidMiner_repo/Results/attribute_weigths_processed.xlsx
+++ b/RapidMiner_repo/Results/attribute_weigths_processed.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alghisi\Documents\GitHub\PA_assignement_2\RapidMiner_repo\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alghisi\Documents\GitHub\PA_assignment_2\RapidMiner_repo\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB4AEE6-F79D-4954-8C41-BCD3CD68BDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A480A689-62DA-42EE-978F-77647B37B8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2160" yWindow="-276" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weights to Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -28,310 +29,310 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>confidence_topic_48</t>
-  </si>
-  <si>
-    <t>confidence_topic_47</t>
-  </si>
-  <si>
-    <t>confidence_topic_49</t>
-  </si>
-  <si>
-    <t>confidence_topic_40</t>
-  </si>
-  <si>
-    <t>confidence_topic_42</t>
-  </si>
-  <si>
-    <t>confidence_topic_41</t>
-  </si>
-  <si>
-    <t>confidence_topic_44</t>
-  </si>
-  <si>
-    <t>confidence_topic_43</t>
-  </si>
-  <si>
-    <t>confidence_topic_46</t>
-  </si>
-  <si>
-    <t>confidence_topic_45</t>
-  </si>
-  <si>
-    <t>confidence_topic_37</t>
-  </si>
-  <si>
-    <t>confidence_topic_36</t>
-  </si>
-  <si>
-    <t>confidence_topic_39</t>
-  </si>
-  <si>
-    <t>confidence_topic_38</t>
-  </si>
-  <si>
-    <t>confidence_topic_31</t>
-  </si>
-  <si>
-    <t>confidence_topic_30</t>
-  </si>
-  <si>
-    <t>confidence_topic_33</t>
-  </si>
-  <si>
-    <t>confidence_topic_32</t>
-  </si>
-  <si>
-    <t>confidence_topic_35</t>
-  </si>
-  <si>
-    <t>confidence_topic_34</t>
-  </si>
-  <si>
-    <t>confidence_topic_69</t>
-  </si>
-  <si>
-    <t>confidence_topic_62</t>
-  </si>
-  <si>
-    <t>confidence_topic_61</t>
-  </si>
-  <si>
-    <t>confidence_topic_64</t>
-  </si>
-  <si>
-    <t>confidence_topic_63</t>
-  </si>
-  <si>
-    <t>confidence_topic_66</t>
-  </si>
-  <si>
-    <t>confidence_topic_65</t>
-  </si>
-  <si>
-    <t>confidence_topic_68</t>
-  </si>
-  <si>
-    <t>confidence_topic_67</t>
-  </si>
-  <si>
-    <t>confidence_topic_71</t>
-  </si>
-  <si>
-    <t>confidence_topic_70</t>
-  </si>
-  <si>
-    <t>confidence_topic_59</t>
-  </si>
-  <si>
-    <t>confidence_topic_58</t>
-  </si>
-  <si>
-    <t>confidence_topic_51</t>
-  </si>
-  <si>
-    <t>confidence_topic_50</t>
-  </si>
-  <si>
-    <t>confidence_topic_53</t>
-  </si>
-  <si>
-    <t>confidence_topic_52</t>
-  </si>
-  <si>
-    <t>confidence_topic_55</t>
-  </si>
-  <si>
-    <t>confidence_topic_54</t>
-  </si>
-  <si>
-    <t>confidence_topic_57</t>
-  </si>
-  <si>
-    <t>confidence_topic_56</t>
-  </si>
-  <si>
-    <t>confidence_topic_60</t>
-  </si>
-  <si>
-    <t>confidence_topic_84</t>
-  </si>
-  <si>
-    <t>confidence_topic_83</t>
-  </si>
-  <si>
-    <t>confidence_topic_86</t>
-  </si>
-  <si>
-    <t>confidence_topic_85</t>
-  </si>
-  <si>
-    <t>confidence_topic_88</t>
-  </si>
-  <si>
-    <t>confidence_topic_87</t>
-  </si>
-  <si>
-    <t>confidence_topic_89</t>
-  </si>
-  <si>
-    <t>confidence_topic_91</t>
-  </si>
-  <si>
-    <t>confidence_topic_90</t>
-  </si>
-  <si>
-    <t>confidence_topic_93</t>
-  </si>
-  <si>
-    <t>confidence_topic_92</t>
-  </si>
-  <si>
-    <t>review_corpe_length</t>
-  </si>
-  <si>
-    <t>confidence_topic_73</t>
-  </si>
-  <si>
-    <t>confidence_topic_72</t>
-  </si>
-  <si>
-    <t>confidence_topic_75</t>
-  </si>
-  <si>
-    <t>confidence_topic_74</t>
-  </si>
-  <si>
-    <t>confidence_topic_77</t>
-  </si>
-  <si>
-    <t>confidence_topic_76</t>
-  </si>
-  <si>
-    <t>confidence_topic_79</t>
-  </si>
-  <si>
-    <t>confidence_topic_78</t>
-  </si>
-  <si>
-    <t>confidence_topic_80</t>
-  </si>
-  <si>
-    <t>confidence_topic_82</t>
-  </si>
-  <si>
-    <t>confidence_topic_81</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>confidence_topic_26</t>
-  </si>
-  <si>
-    <t>confidence_topic_25</t>
-  </si>
-  <si>
-    <t>confidence_topic_28</t>
-  </si>
-  <si>
-    <t>confidence_topic_27</t>
-  </si>
-  <si>
-    <t>confidence_topic_29</t>
-  </si>
-  <si>
-    <t>confidence_topic_8</t>
-  </si>
-  <si>
-    <t>confidence_topic_7</t>
-  </si>
-  <si>
-    <t>confidence_topic_20</t>
-  </si>
-  <si>
-    <t>confidence_topic_6</t>
-  </si>
-  <si>
-    <t>confidence_topic_5</t>
-  </si>
-  <si>
-    <t>confidence_topic_22</t>
-  </si>
-  <si>
-    <t>confidence_topic_21</t>
-  </si>
-  <si>
-    <t>confidence_topic_24</t>
-  </si>
-  <si>
-    <t>confidence_topic_9</t>
-  </si>
-  <si>
-    <t>confidence_topic_23</t>
-  </si>
-  <si>
-    <t>confidence_topic_4</t>
-  </si>
-  <si>
-    <t>confidence_topic_3</t>
-  </si>
-  <si>
-    <t>confidence_topic_2</t>
-  </si>
-  <si>
-    <t>confidence_topic_1</t>
-  </si>
-  <si>
-    <t>confidence_topic_15</t>
-  </si>
-  <si>
-    <t>confidence_topic_14</t>
-  </si>
-  <si>
-    <t>confidence_topic_17</t>
-  </si>
-  <si>
-    <t>confidence_topic_16</t>
-  </si>
-  <si>
-    <t>confidence_topic_19</t>
-  </si>
-  <si>
-    <t>confidence_topic_18</t>
-  </si>
-  <si>
-    <t>confidence_topic_95</t>
-  </si>
-  <si>
-    <t>confidence_topic_94</t>
-  </si>
-  <si>
-    <t>confidence_topic_97</t>
-  </si>
-  <si>
-    <t>confidence_topic_96</t>
-  </si>
-  <si>
-    <t>confidence_topic_11</t>
-  </si>
-  <si>
-    <t>confidence_topic_99</t>
-  </si>
-  <si>
-    <t>confidence_topic_98</t>
-  </si>
-  <si>
-    <t>confidence_topic_10</t>
-  </si>
-  <si>
-    <t>confidence_topic_13</t>
-  </si>
-  <si>
-    <t>confidence_topic_12</t>
-  </si>
-  <si>
-    <t>confidence_topic_100</t>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>topic_1</t>
+  </si>
+  <si>
+    <t>topic_5</t>
+  </si>
+  <si>
+    <t>topic_4</t>
+  </si>
+  <si>
+    <t>topic_2</t>
+  </si>
+  <si>
+    <t>topic_7</t>
+  </si>
+  <si>
+    <t>topic_3</t>
+  </si>
+  <si>
+    <t>topic_8</t>
+  </si>
+  <si>
+    <t>topic_10</t>
+  </si>
+  <si>
+    <t>topic_15</t>
+  </si>
+  <si>
+    <t>topic_49</t>
+  </si>
+  <si>
+    <t>topic_16</t>
+  </si>
+  <si>
+    <t>topic_12</t>
+  </si>
+  <si>
+    <t>topic_20</t>
+  </si>
+  <si>
+    <t>topic_55</t>
+  </si>
+  <si>
+    <t>topic_34</t>
+  </si>
+  <si>
+    <t>topic_27</t>
+  </si>
+  <si>
+    <t>topic_6</t>
+  </si>
+  <si>
+    <t>topic_60</t>
+  </si>
+  <si>
+    <t>topic_26</t>
+  </si>
+  <si>
+    <t>topic_21</t>
+  </si>
+  <si>
+    <t>topic_17</t>
+  </si>
+  <si>
+    <t>topic_81</t>
+  </si>
+  <si>
+    <t>topic_40</t>
+  </si>
+  <si>
+    <t>topic_9</t>
+  </si>
+  <si>
+    <t>topic_38</t>
+  </si>
+  <si>
+    <t>topic_61</t>
+  </si>
+  <si>
+    <t>topic_22</t>
+  </si>
+  <si>
+    <t>topic_48</t>
+  </si>
+  <si>
+    <t>topic_62</t>
+  </si>
+  <si>
+    <t>topic_18</t>
+  </si>
+  <si>
+    <t>topic_37</t>
+  </si>
+  <si>
+    <t>topic_44</t>
+  </si>
+  <si>
+    <t>topic_42</t>
+  </si>
+  <si>
+    <t>topic_51</t>
+  </si>
+  <si>
+    <t>topic_25</t>
+  </si>
+  <si>
+    <t>topic_83</t>
+  </si>
+  <si>
+    <t>topic_46</t>
+  </si>
+  <si>
+    <t>topic_94</t>
+  </si>
+  <si>
+    <t>topic_68</t>
+  </si>
+  <si>
+    <t>topic_56</t>
+  </si>
+  <si>
+    <t>topic_31</t>
+  </si>
+  <si>
+    <t>topic_99</t>
+  </si>
+  <si>
+    <t>topic_59</t>
+  </si>
+  <si>
+    <t>topic_70</t>
+  </si>
+  <si>
+    <t>topic_86</t>
+  </si>
+  <si>
+    <t>topic_19</t>
+  </si>
+  <si>
+    <t>topic_11</t>
+  </si>
+  <si>
+    <t>topic_91</t>
+  </si>
+  <si>
+    <t>topic_72</t>
+  </si>
+  <si>
+    <t>topic_64</t>
+  </si>
+  <si>
+    <t>topic_13</t>
+  </si>
+  <si>
+    <t>topic_84</t>
+  </si>
+  <si>
+    <t>topic_74</t>
+  </si>
+  <si>
+    <t>topic_36</t>
+  </si>
+  <si>
+    <t>topic_14</t>
+  </si>
+  <si>
+    <t>topic_71</t>
+  </si>
+  <si>
+    <t>topic_41</t>
+  </si>
+  <si>
+    <t>topic_73</t>
+  </si>
+  <si>
+    <t>topic_28</t>
+  </si>
+  <si>
+    <t>topic_76</t>
+  </si>
+  <si>
+    <t>topic_66</t>
+  </si>
+  <si>
+    <t>topic_57</t>
+  </si>
+  <si>
+    <t>topic_87</t>
+  </si>
+  <si>
+    <t>topic_82</t>
+  </si>
+  <si>
+    <t>topic_52</t>
+  </si>
+  <si>
+    <t>topic_95</t>
+  </si>
+  <si>
+    <t>topic_88</t>
+  </si>
+  <si>
+    <t>topic_50</t>
+  </si>
+  <si>
+    <t>topic_97</t>
+  </si>
+  <si>
+    <t>topic_98</t>
+  </si>
+  <si>
+    <t>topic_77</t>
+  </si>
+  <si>
+    <t>topic_29</t>
+  </si>
+  <si>
+    <t>topic_32</t>
+  </si>
+  <si>
+    <t>topic_39</t>
+  </si>
+  <si>
+    <t>topic_43</t>
+  </si>
+  <si>
+    <t>topic_58</t>
+  </si>
+  <si>
+    <t>topic_85</t>
+  </si>
+  <si>
+    <t>topic_24</t>
+  </si>
+  <si>
+    <t>topic_35</t>
+  </si>
+  <si>
+    <t>topic_67</t>
+  </si>
+  <si>
+    <t>topic_23</t>
+  </si>
+  <si>
+    <t>topic_30</t>
+  </si>
+  <si>
+    <t>topic_69</t>
+  </si>
+  <si>
+    <t>topic_53</t>
+  </si>
+  <si>
+    <t>topic_80</t>
+  </si>
+  <si>
+    <t>topic_65</t>
+  </si>
+  <si>
+    <t>topic_54</t>
+  </si>
+  <si>
+    <t>topic_75</t>
+  </si>
+  <si>
+    <t>topic_78</t>
+  </si>
+  <si>
+    <t>topic_89</t>
+  </si>
+  <si>
+    <t>topic_100</t>
+  </si>
+  <si>
+    <t>topic_93</t>
+  </si>
+  <si>
+    <t>topic_79</t>
+  </si>
+  <si>
+    <t>topic_45</t>
+  </si>
+  <si>
+    <t>topic_96</t>
+  </si>
+  <si>
+    <t>topic_47</t>
+  </si>
+  <si>
+    <t>topic_92</t>
+  </si>
+  <si>
+    <t>topic_90</t>
+  </si>
+  <si>
+    <t>topic_63</t>
+  </si>
+  <si>
+    <t>topic_33</t>
   </si>
 </sst>
 </file>
@@ -340,9 +341,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -367,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +384,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -470,18 +477,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
@@ -498,6 +506,988 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Feature weight</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Weights to Data'!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> length </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> topic_1 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> stars </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> topic_5 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> topic_4 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> topic_2 </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> topic_7 </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> topic_3 </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> topic_8 </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> topic_10 </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> topic_15 </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> topic_49 </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> topic_16 </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> topic_12 </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> topic_20 </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> topic_55 </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> topic_34 </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> topic_27 </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> topic_6 </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> topic_60 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Weights to Data'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.1854668463673407E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5948255692725389E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.235129295612714E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0827786308967625E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9166069963344369E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7398965390558631E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6983693709155585E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5643540659479883E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4835385195109628E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.390757584130325E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0398375230501184E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9924694859946902E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9721189207247171E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9371224051512533E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6828560254251935E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6333393317477643E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5830753710359042E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5562245926374552E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5202525512292559E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4747873776966701E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6759-498C-9995-C8852D78D369}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="578308552"/>
+        <c:axId val="578309208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="578308552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578309208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="578309208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578308552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1">
+          <a:alpha val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>146100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114129</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE4BCAF-7A04-A2C1-3456-225EC2F5E984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -797,19 +1787,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,399 +1807,401 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6">
         <v>6.1854668463673407E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B3" s="7">
         <v>3.5948255692725389E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7">
         <v>3.235129295612714E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7">
         <v>3.0827786308967625E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7">
         <v>2.9166069963344369E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7">
         <v>2.7398965390558631E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7">
         <v>2.6983693709155585E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7">
         <v>2.5643540659479883E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7">
         <v>2.4835385195109628E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7">
         <v>2.390757584130325E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7">
         <v>2.0398375230501184E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7">
         <v>1.9924694859946902E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B14" s="7">
         <v>1.9721189207247171E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="B15" s="7">
         <v>1.9371224051512533E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>1.6828560254251935E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7">
         <v>1.6333393317477643E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="7">
         <v>1.5830753710359042E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B19" s="7">
         <v>1.5562245926374552E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7">
         <v>1.5202525512292559E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B21" s="7">
         <v>1.4747873776966701E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B22" s="7">
         <v>1.4632239384891015E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B23" s="7">
         <v>1.4061683949008698E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B24" s="7">
         <v>1.3950077423170835E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="B25" s="7">
         <v>1.3569905550393726E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B26" s="7">
         <v>1.3427490653471656E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B27" s="7">
         <v>1.2965486223300109E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B28" s="7">
         <v>1.2556899454043138E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B29" s="7">
         <v>1.2191384331397251E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B30" s="7">
         <v>1.2090281580675016E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B31" s="7">
         <v>1.1934867530541043E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B32" s="7">
         <v>1.1381340360446961E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B33" s="7">
         <v>1.1317566434428324E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B34" s="7">
         <v>1.1302118655334236E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B35" s="7">
         <v>1.0909307979798843E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B36" s="7">
         <v>1.0839458967384917E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="7">
         <v>1.0692608467490469E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B38" s="7">
         <v>9.9894047272420725E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B39" s="7">
         <v>9.7652178136071136E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B40" s="7">
         <v>9.1348978449014451E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="B41" s="7">
         <v>8.998515755217722E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B42" s="7">
         <v>8.9859470902622241E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="7">
         <v>8.9713270482780078E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7">
         <v>8.7437959560633209E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="B45" s="7">
         <v>8.4606248281926619E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B46" s="7">
         <v>8.4554763078724428E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B47" s="7">
         <v>8.2418555384847839E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" s="7">
         <v>8.0824176065060014E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B49" s="7">
         <v>7.9616548806990158E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="B50" s="7">
         <v>7.8223934159524899E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
@@ -1217,417 +2209,417 @@
         <v>7.6464992571908755E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B52" s="7">
         <v>7.5830523727971133E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B53" s="7">
         <v>7.4142442527522006E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B54" s="7">
         <v>7.3959125227651022E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B55" s="7">
         <v>7.3789224887640453E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B56" s="7">
         <v>7.2329094653688598E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B57" s="7">
         <v>7.0949544091269785E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B58" s="7">
         <v>6.9918338011506253E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B59" s="7">
         <v>6.7181141307072062E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B60" s="7">
         <v>6.0082230169596308E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B61" s="7">
         <v>5.4584504026176425E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B62" s="7">
         <v>5.2716665949426381E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B63" s="7">
         <v>5.1485861764036722E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B64" s="7">
         <v>5.0879210417610152E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B65" s="7">
         <v>5.0795976394047782E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B66" s="7">
         <v>4.9785301688744527E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B67" s="7">
         <v>4.779250876819444E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B68" s="7">
         <v>4.5711426279568595E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B69" s="7">
         <v>4.5133006069534029E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B70" s="7">
         <v>4.4934705901227227E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B71" s="7">
         <v>4.189631065069672E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B72" s="7">
         <v>4.1159801255883982E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B73" s="7">
         <v>3.6979012580065453E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B74" s="7">
         <v>3.6911823095698458E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B75" s="7">
         <v>3.5915526954327075E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B76" s="7">
         <v>3.5898841035292943E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B77" s="7">
         <v>3.4345989499568056E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="B78" s="7">
         <v>3.3229482314727642E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B79" s="7">
         <v>3.2000759725539164E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B80" s="7">
         <v>3.057677710122149E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="7">
         <v>2.9576627614022024E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B82" s="7">
         <v>2.9069521525113785E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="B83" s="7">
         <v>2.7012109416773003E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B84" s="7">
         <v>2.6188563895019031E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B85" s="7">
         <v>2.5967474077981502E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B86" s="7">
         <v>2.2359745132133472E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B87" s="7">
         <v>2.2272435846425165E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B88" s="7">
         <v>2.186477647344962E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B89" s="7">
         <v>1.9134499357894967E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B90" s="7">
         <v>1.873723050877258E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B91" s="7">
         <v>1.7466214255180579E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B92" s="7">
         <v>1.6394912143638848E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B93" s="7">
         <v>1.5373644650216018E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B94" s="7">
         <v>1.5366466474316858E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B95" s="7">
         <v>1.5355674346987165E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B96" s="7">
         <v>1.419625987982192E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B97" s="7">
         <v>1.0798779222997647E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" s="7">
         <v>9.3636084917288339E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B99" s="7">
         <v>9.29102992651203E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B100" s="7">
         <v>6.9427049171575793E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B101" s="7">
         <v>6.6930330057101708E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B102" s="7">
         <v>6.1244875997016788E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B103" s="7">
         <v>4.3268947267264028E-4</v>
@@ -1638,5 +2630,18 @@
     <sortCondition descending="1" ref="B2:B103"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E15D970-D65A-4CB1-94EB-E85BF609364D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>